--- a/followed_users.xlsx
+++ b/followed_users.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -345,59 +344,155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>alash_arts</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>world!</t>
+          <t>01/09/2020, 11:59:37</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hallo</t>
+          <t>lolariostyle</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>welt</t>
+          <t>01/09/2020, 11:59:50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>z1n.__.01</t>
+          <t>yleniastorti</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/09/2020, 11:44:05</t>
+          <t>01/09/2020, 12:06:04</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>swissmonamour</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:06:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fashiongirls91</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:06:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mesiszigeti</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:06:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>lolariostyle</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>01/09/2020, 11:44:18</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>fashiongirls91</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:23:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mesiszigeti</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:23:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ikizlerlekurabiyeler</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:31:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>_.fayis2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:31:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>italia_dev</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/09/2020, 12:31:42</t>
         </is>
       </c>
     </row>

--- a/followed_users.xlsx
+++ b/followed_users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13474" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -344,83 +344,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>alash_arts</t>
+          <t>username</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>01/09/2020, 11:59:37</t>
+          <t>time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lolariostyle</t>
+          <t>italia_dev</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/09/2020, 11:59:50</t>
+          <t>01/09/2020, 12:31:42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>yleniastorti</t>
+          <t>_.fayis2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:06:04</t>
+          <t>01/09/2020, 12:31:36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>swissmonamour</t>
+          <t>ikizlerlekurabiyeler</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:06:11</t>
+          <t>01/09/2020, 12:31:29</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fashiongirls91</t>
+          <t>mesiszigeti</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:06:30</t>
+          <t>01/09/2020, 12:23:08</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mesiszigeti</t>
+          <t>fashiongirls91</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:06:37</t>
+          <t>01/09/2020, 12:23:01</t>
         </is>
       </c>
     </row>
@@ -439,60 +442,7668 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fashiongirls91</t>
+          <t>swissmonamour</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:23:01</t>
+          <t>01/09/2020, 12:06:11</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mesiszigeti</t>
+          <t>yleniastorti</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:23:08</t>
+          <t>01/09/2020, 12:06:04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ikizlerlekurabiyeler</t>
+          <t>alash_arts</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:31:29</t>
+          <t>01/09/2020, 11:59:37</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>_.fayis2</t>
+          <t>anna.dmn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:31:36</t>
+          <t>01/09/2020, 17:30:28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>italia_dev</t>
+          <t>alinaspa_</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:31:42</t>
+          <t>01/09/2020, 17:30:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>selinajulia_</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:30:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>patriciawlf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:31:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mirjamwx</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:31:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>kind_of_b</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:31:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>bright.angel9</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:31:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mrsniine</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:31:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>elisaa_ca</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:31:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>jana.victoria.thimm</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:31:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>saraygarciageiger</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:32:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>kristina_modoranovic</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:32:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sophie__lena</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:32:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>celine_knecht</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:32:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>nelipies</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:32:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>jessiquednau</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>stefaniegoldmarie</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:32:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ay.bouz</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>herzmelodie.vic</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>bella.fashionella</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>steffi_patricia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>leeeena_ar</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>unbreakablx</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>linchenmaarie</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>kaathrinsophie</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>wildatheartcs</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:33:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>claudia.wlo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:34:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>melania.ivanka</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:34:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>hnebendahl</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:34:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>daniela.s_</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:34:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>nessigoebel</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:34:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>travelaestheticsbynoelle</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:34:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>jay.jaynina</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:34:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>madalena_isabel</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:34:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>jenni91__</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:35:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>wuchtmopp</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:35:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sarah.98._</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:35:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>franzi_na_</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:35:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sherryloove</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:35:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>anjelasgallery</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:35:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>woman.travel</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:35:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>steffi.lob</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:36:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>aminaspassion</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:36:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>jenny_94___</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:36:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>dodipi</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:36:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>nikanewfield</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:36:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>aniko_schweigert</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:36:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>_christelle____</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:36:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>saraheng__</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:36:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>annikaaa_tb</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:41:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>jennystenz</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:41:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vanessa_frr</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:42:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>christiinaa_pe</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>about_jaqueline</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:44:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>anniikaa_ku</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:44:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>itzjanamo</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:45:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>diekimbeere</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:47:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>kimvirginia_</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:47:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>lisafusser</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>nicolelouisea</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:48:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>melissmoller</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:48:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>julia_elisa_</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:49:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>raulsebaastian</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:49:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>mlle.bahar</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:49:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>be_a_lexa</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:50:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>mia.baz</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:50:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>tabitha.goldbecker</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:50:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>olia.isa.photography</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:51:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>_i_am_a_shopaholic</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:51:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>absolut_svenni</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:51:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>_lizzywonderland___</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:52:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>intervallfasten_de</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:52:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>dieweltvonoben</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:52:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>marie_13.06</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:54:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>nanatiee</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:55:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>la_tina_91</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:55:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>celinekmn</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:55:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>liz_mk</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:56:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>dianosaurier</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:56:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>mytravelscrapbookpages</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:57:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>annifash_</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:57:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ver_eena_</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:57:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>fashionvernissage</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:58:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>hannah_pks</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:58:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>travelsofblonde</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:58:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>judy.blankat</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:59:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>marxpaulina</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:59:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>__minoa__</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>01/09/2020, 17:59:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>viovisions</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>nikilein_</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:00:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>eiileeeen_</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:01:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>jacci.ko</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:01:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>lisixmoe</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:01:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>lauraschmtt</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:02:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>leaschlaefcke</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:02:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>jakobmischek</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:03:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>salome.ayleen</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>fabian_sndr_</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>01/09/2020, 18:04:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>krizllybear</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:31:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>paulienmullaertx</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:31:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>kenzii.grace</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:32:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>alinavertina</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:32:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>stylewithmechristamarie</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:32:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>fyzozdemir</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:33:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>meg.helm</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>pascalvanderhaas</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:33:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>annapabijanczyk</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:34:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>real_juliam</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:34:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>seainty</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:34:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>rejuvenative</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:35:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ankleflesh</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:35:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>veraciousreviews</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:35:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>sammiew20</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:36:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>sausage_dog_smudge</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:36:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>lifewith.charles</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:36:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>christabellaglam</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:37:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>emilyanastasia93</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:37:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>i.am.millyrod</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:37:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>de.biancca</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:38:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>frandsii</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:38:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>yearofjenn</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:38:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>alaseius</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>americanclouds</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:39:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>five12studio</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:39:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>robynafrank</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:40:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>messiangelapparel</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:40:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>sylvanamejiamadrid</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:41:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>bulletjournalelly</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>thebestofbeauty101</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:41:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>maartje.polling</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>remnantsofbrit</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:42:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>acornishgeek</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:42:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>hellolakeside</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:43:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>chaylacharlise</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:43:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>alice_maher</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:43:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>lulusandtutus</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:44:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>andrxw.val</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>misstjollier</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:44:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>maismorris</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>greatnorthsocial</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:45:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>mystyle.at.nr16</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:45:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>shanonlolamaries</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:46:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>mxdalin</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:46:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>foodieyunyun</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:46:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>estellecrp</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:47:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>michellelocke6</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:47:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>converseandwanderlust</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:47:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>szygaaa</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:48:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>hayleyatella</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:48:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>addictedtodiamondsandlipstick</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:48:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>jomoropa</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:49:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>the.mariah.grace</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:49:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>stillshiningsha</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:49:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>the.green.glow</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:50:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>akittenishdiary</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:50:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>gabriela_xo_xo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>yogaunionstudio</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:51:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>anniedemm</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:51:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>em_weir</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:52:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>fashionmonger8</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:52:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>deerinthecrowd</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:52:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>lifeofcharleyx</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>rosiecoles</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:53:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>_jayniethompson</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:53:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>bysimplyjana</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:54:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>itsniobe</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:54:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>antoniaconduah</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:55:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>curlyjosephine</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:55:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>theoilymamaessentials</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:55:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>eight12studio_</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>bkd_23</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:56:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>shelbyadunn</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:56:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>lifeforeverchanged</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:57:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>lilykatefrance</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:57:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>bethemilydann</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:57:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>littleblondeblogx</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:58:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>amillenialmommentality</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:58:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>laura.rodway</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:58:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>glamorousandgeeky</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:59:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>tiggy.and.ashley</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>01/10/2020, 22:59:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>cxrlywhite</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>beautiscentuk</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>emilyywheeler</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:00:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>raquel.mccomb</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:01:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>daily_delle</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:01:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>kylanicolejames</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:01:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>christinajonesphoto</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:02:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>stylemebea</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:02:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>kellyannstamp</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:02:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>olyviaquelin</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:03:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>coco_floflo</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:03:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>laurashighsandlowes</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:03:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>jenmeatsix_</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>eelevatedd</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:04:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>thagabulouslyfe</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:04:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>loveisinthehairx_</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:05:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>ohsnapitsash</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:05:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>kaylabanderson</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:05:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>knotyoureverydaygirl</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:06:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>caryslouisebrandon</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:06:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>rupscandygirl</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:06:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>fitinheels_</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:07:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>laprovencetendance</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:07:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>_onieka</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:07:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>in.the.dash</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:08:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>thelucy.a</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:08:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>itslaurenvictoria</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:08:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>honestlyelise</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:09:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>kosmetikinstitut_excellent</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:09:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>tgjonah</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:10:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>livinlifesgtstyle</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:10:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>kate_lords_ladies_cottages</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:10:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>milliegenner</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:11:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>glowtista</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>military.wife.life</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:11:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>annalysemarie</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:12:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>gbplaw</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:12:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>jxdecharlotte</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:12:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>emjng_ma</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:13:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>mohitachpal.24</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ems.escapades</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:13:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>lifeunlimitedblog</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:14:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>petitegeorgie</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>thepriscillamak</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:15:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>lifebychantal</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:15:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>sydwindow</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:16:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>sachasteph_</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:16:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>brightestofthebunch</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:16:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>lifewithleahmarie</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>laurenandforeign</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ahashbrown</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:17:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>venessamber</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:18:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>roxthefriendlyghost</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>fernnroberts</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:18:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>charlottejohnston_</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>lotsoflora</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:19:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>k_colburn14</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:19:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>paulascloset</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:20:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>emmagoudgeuk</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:20:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>alanasvibe</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:21:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>gracefulandfree</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ashxbeck</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:21:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>teadayblogs</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:22:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>lunavissers</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:22:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>absolutelyy_alicia</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>themuseseven</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:23:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>_mollybrooke</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:23:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>paygehanover</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>the_sockateur</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:24:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>designsby.grace</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>deedeeslifestyle</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:24:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>itsmesinema</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:25:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>osteohustle</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:25:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>harvestjoyblogs</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:25:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>adventuresoftyandbee</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:26:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>doseofduo</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:26:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>joyslife_unscripted</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:26:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>formulaglam</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:27:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>zaramarwoodxx</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:27:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>adventureswithnell</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:28:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>meal.prepping.in.heels</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:28:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>shelleciabjohnson</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:28:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>jeans_santiago</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:29:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>sallyhildi</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:29:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>xocassver</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:29:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>karlyjo</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:30:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>by_peronne</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:30:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>katiejanecollins</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:31:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>jojo.slims__</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:31:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>megansvida</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:31:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>somewhatperfectblog</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:32:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>nosuchthinguk</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:32:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>lauraloves87</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:32:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>helloellielouise_blog</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:33:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>smalltowninstilettos</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:33:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>ashleyzrose_</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>01/10/2020, 23:34:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>saandiana</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:14:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>pwrsabina</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:15:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>lisabuchegger</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:16:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>mariliasilvag</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>lauraacharlie</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:17:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>sergedeuces</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:18:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>steffipanholzer</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:18:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>ep2510</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:19:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>rosy_und_markus</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:19:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>marti14a</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:20:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>belalaanis</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:21:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>lifestylevouge_</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:21:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>curlybox</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:22:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>hoanglongtr__</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>je_si_17</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>mrswoolrich</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:24:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>amira.kaveli</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>dianakukanova</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:25:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ali0711___</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>alohaa_tina</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>philippleonofficial</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:27:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>annrox_com</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:27:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>frankly.alina</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:28:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>jm.assaf</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:28:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>marwaalasawy</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:29:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>lisa.michaela</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:30:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>tryornothing</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:30:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>bubbles_hairdresser</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:31:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>michelle_jelinek</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:31:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>juliakogler</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:32:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>lisamarieulz</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:33:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>chiarayxt</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:33:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>fantastique_style</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:34:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>nenangyn</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>celine_chiara</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:35:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>essen_trinken_schlafen</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:36:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>fitnap_</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:36:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>thehikingfox</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:37:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>alifilali88</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:37:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>sedaay_ocel</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:38:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>christianx1997</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:39:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>mgdolenzabad</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:39:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>lucalorenzoberlin</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:40:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ostrvo_snova13</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:40:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>nele.sicher</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:41:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>mystical_miss_shah</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:42:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>sandra.or</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:42:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>jennyhuang_</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:43:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>heynika_com</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:43:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>artlinesvet</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:44:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>_vanysbeautyplace_</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>princessrosana_com</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>chantal.pe</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:46:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>julesmcwoods_art</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:46:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>_view_of_my_life_</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:47:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>sarahlena_</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>nina.nici</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:48:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>typischframos</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:49:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>ilkyarsln</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:49:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>hanyngyn</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:50:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>berfinkisaa1</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:50:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>deividkoo</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:51:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>_foxxy.cleopatra_</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:52:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>vicis.alltagswahnsinn</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:52:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>jan_bookwoods</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:53:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>melanieshaubenwunderdiary</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:53:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>lisas_schlemmerecke</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:54:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>kathrin0208</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:55:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>_spaceman_69</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:56:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>neda.picsure</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:56:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>reisepsycho</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:57:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>laufhaus_clothing</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:57:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>vickyliebtdich</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:58:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>princess.paranoia</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:59:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>v.suit</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>01/12/2020, 19:59:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>vienna_go</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>bezirk.moedling</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:00:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>janaglawischnig</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:01:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>wildblumenkind_</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:02:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>khushboo___desai</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:02:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>selina_billy_diemama</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:03:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>vida_loca_gg</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:03:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>barbaragigantiofficial</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:04:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>herzvoll.blog</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:05:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>_.ronafloriana._</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:05:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>selina.groetzner</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:06:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>nasti.fox</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:06:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>skinnydip_diary</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:07:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>jo.eniem</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:08:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>princesajann</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:08:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>jonnavanbrenk</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:09:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>emilie_gcvs</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:09:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>travellinkiwis</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:10:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>juxolexo</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:11:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>nataliexlau</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:11:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>miss_sudhaaa</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>nmjfotografie</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:12:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>heatherwerth</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:13:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>vidhibhagat_</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:13:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>mermvidskynxtings</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:14:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>ladma8</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:15:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>bilgi.ates</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:15:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>mmarcelsmusicblog</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:16:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>makeupbykalise</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:16:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>wanderjuna</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>turkusowa_anna</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:18:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>dontbeafraidofart</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:18:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>foods_niche</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>ourcountrymodernhome</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>tydream111</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:20:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>anna__hinkle</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:21:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>georgia_ludwig</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:21:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>skin_t__</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:22:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>pauladybug_</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>rosethemainecoon</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>miaalein</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>dailymiricle</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:24:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>hungryandwelldressed</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:25:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>danniellerachael</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:25:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>makeupaddict.liss1991</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>topacio.salazar</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>aviator.sebastian</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:27:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>m_ratty_b</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:28:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>lottieslott</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:28:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>missperfectfashion_and_beauty_</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:29:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>jannajoanna</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:29:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>_oddsinmyfavor</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:30:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>liamchessell</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:31:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>acannycuppa</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:31:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>tapiocathecat</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:32:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>addictedtodiamondsandlipstick</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:33:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>itsjustrheaxo</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:33:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>hollielgmakeup</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:34:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>sumiyyah_balesaria</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:34:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>alena.halfutdinova</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:35:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>thefoodiesocialclub</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>theglowfactor___</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>rainbowcrushx</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>alxndrabrtn</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:37:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>haleymessenger</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:38:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>laugh2k</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>mirijam_fritz</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:39:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>simononthegram</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:40:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>miss.jayme.lynn</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:40:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>orlaminish</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>vixxyrose</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:41:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>her.beauty.diary</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:42:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>the.hot.mess.mamas.tribe.3</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>aleks_solowianiuk</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:43:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>liendewolfxx</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:44:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>sylvana_wolbers</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:44:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>v9i6t0n</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:45:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>_moonprismpowrmakeup</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:46:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>our_little_garcia</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>hannahjooyy</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:47:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>whatsnotts</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:47:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>pashvbeauty</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:48:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>averageaubree</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:49:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>righton_target</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:49:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>marilynboydx</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:50:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>themillennialmamablog</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:50:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>anna_onajourney</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>engravedbynura</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:52:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>whatabigailsaysblog</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:52:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>lililovescandles</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:53:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>lilcamelot</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:54:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>lslmakeupaccount_x</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:54:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>marlene__ortega</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:55:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>misscgeorgiou</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:55:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>welcometokendal</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:56:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>perfectkristenlips</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:57:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>thehangrycure_</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:57:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>ljr.design</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:58:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>beautiigoals</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:58:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>gabistyled</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:59:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>thelakieshalewis</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>01/12/2020, 20:59:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>zairadursoo</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>01/12/2020, 21:00:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>kateattlee</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>01/12/2020, 21:01:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>all_things_phenomenon</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>01/12/2020, 21:01:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>_theriverportals</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>01/12/2020, 21:02:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>beccadozen</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>01/12/2020, 21:02:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>yasmin.erl</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>01/12/2020, 21:03:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>mariast_hr</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:11:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>sarahwhnr</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:12:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>anna1brand</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:13:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>jeeettis</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:13:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>_laaurella</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:14:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>daniinchen</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:15:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>dianosaurier</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>heygingerella</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:16:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>__sprueche.xd_</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:16:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>nordengirl</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>thegarage_stuttgart</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:18:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>anuschkabonsky</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:18:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>justyourmemories</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:19:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>absolut_svenni</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:19:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>meinung_queen</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:20:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>juju_love_to_cook</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:21:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>verouture</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>cheykingsize</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>mijaluise</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:22:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>instaluxeegirls</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:23:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>bele.marie_</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>liebefrieda_</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:24:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>youyue1688</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:25:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>i_m_your_king07</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:26:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>_wandering.dragon_</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:26:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>planted_persuasions</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:27:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>ma.lena_v</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:28:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>browlycare</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:28:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>belezza___</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:29:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>alisaaa.w</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:29:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>mrmrslinow</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:30:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>sil.syl_abroad</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:31:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>ohviveladanse.mademoiselle</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:31:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>ina_beautyandskin</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:32:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>blaues.madchen</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>ma.rina_mi</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:34:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>__v.erena</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:34:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>monnemer_maedsche</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:35:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>stylehousephotos</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:36:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>layalubu</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:36:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>finja_clusn</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:37:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>blonde.aholic</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:38:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>iamsolea</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:39:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>franzis_adventures</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:40:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>hamburg.stylish</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:40:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>julia_elisa_</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:41:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>cidi_ser</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:42:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>jyscr</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:42:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>michelline1996</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:43:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>larrri_ge</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:43:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>tanja_s_1109</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:44:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>ms.k.x</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:45:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>sylvia_arez</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:45:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>lifeofnika</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:46:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>jacky_nt</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:46:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>blondie_saeria</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:47:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>weronka.m</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:48:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>fasholyn</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:48:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>greta_lemon</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:49:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>journey.of.jessi</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:50:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>classyplussizefashion</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:51:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>insboho_fashion</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:52:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>felicissimo.mode</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:52:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>eloramia</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:53:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>xsarahst</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:54:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>_sophiexy</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:54:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>mariisellaa</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:55:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>nici_liv</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:55:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>justlollygns</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:56:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>nikilein_</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:57:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>lissi.maria</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:57:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>leaschlaefcke</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:58:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>allthatglitters_91</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:58:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>_da_le_ni_</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>01/13/2020, 10:59:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>elinorcharlotte</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:00:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>sarah.lisaf</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:00:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>jes_si_ca121289</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:01:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>mona_lchtnbrg</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:01:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>puderundpinsel</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:02:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>katjaglz</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:03:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>marissaroykk</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:04:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>meretcherry</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:04:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>simsalabim_saaabriina_</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:05:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>mrs.m.ernst</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:05:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>jullezlana</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:06:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>cozshesolovely</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:07:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>jasse_ha</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:07:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>carina.grf</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:08:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>wortheverysecond</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:08:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>gelis.things</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:09:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>penelopefabia</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:10:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>mrsgruenni</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:10:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>little_bumblebeee</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:11:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>eiileeeen_</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:11:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>janavanessa_</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:12:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>gypsylovestone</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:13:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>mady.lu</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:14:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>sarahjln__</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:14:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>vannabelcaro</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:15:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>schorni0809</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:15:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>xnanaledi</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:16:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>shellycjae</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>elnxa</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:17:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>crystalspiritlabradors</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:18:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>ohmyvalentin_</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:18:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>anna.lore_</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:19:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>mintsky2007</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:20:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>ak_unterkontrolle</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:20:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>anamaria_to</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:21:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>janacabani</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:22:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>anytimermedia</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:22:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>mariebari</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:23:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>doitnico</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>_xe.nia</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:24:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>viktoria.eliisabeth</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:25:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>chris.bender_</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>veroniquevanwestwick</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:26:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>devargonio</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:27:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>triviewphotos</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>itsfeeona</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:28:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>caromecar</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:28:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>vanessaaa_ha</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>nhphotographypro</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>annikastt</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:30:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>moni_zdnski</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:31:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>bes_msdoy1</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:32:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>daily.nati</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:32:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>tina.pesendorfer</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:33:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>liseira</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:33:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>hey.desi.ree</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:34:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>milui_miril</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:35:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>johanniswelt</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:35:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>the.louscious</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:36:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>mrs_whiteside_</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:37:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>jaschmaphan</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:38:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>annasview__</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>anna.dmn</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:40:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>frannnziska</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:41:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>sarahjxhnen</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:42:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>jara_n_9</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:42:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>_me_jessiii_</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:43:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>whatsupwithlena</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:44:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>shokilaudon</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:44:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>nadineshappiness</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:45:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>_pandalia_</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:46:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>cute.pug_milow</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:47:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>mrs.palinski</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:47:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>x12natalie89x</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:48:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>josiisblog</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:49:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>flitzitas</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:49:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>susisaar</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:50:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>kisura_onlinestylist</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:50:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>jenny_diehl</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:52:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>m.shelly.s</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:52:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>beccii._</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:53:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>josefinegiess</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:55:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>youaredoingtheimpossible</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:55:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>van.essa85</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:56:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>xmiiriiam_</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:57:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>mopsleben</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:57:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>diaryofjanet</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:58:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>marielouisnoack</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:58:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>travellovers_for_life</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>01/13/2020, 11:59:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>_paulingin_</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:01:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>sovinye_glazki</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:02:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>karo.mayer</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:03:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>michele.b____</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>butterfly_lilly</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:04:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>sumayabls</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:05:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>miazophie</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:05:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>annchristinbrod</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:06:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>alexandrawlf</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:07:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>inakerpe</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:08:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>jessy_kekksi</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:09:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>franzi.leiiin</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>anna_palrdo</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:10:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>xnathi</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:11:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>_tamilein_</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>01/13/2020, 12:12:08</t>
         </is>
       </c>
     </row>

--- a/followed_users.xlsx
+++ b/followed_users.xlsx
@@ -344,1022 +344,2522 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="F542" sqref="F542"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" activeCellId="1" sqref="A2:XFD2 J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
   <cols>
-    <col width="18.5703125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="18.53515625" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>mesiszigeti</t>
+          <t>koal_laok</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:23:08</t>
+          <t>01/20/2020, 20:58:19</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lolariostyle</t>
+          <t>lisalolalita</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:22:55</t>
+          <t>01/20/2020, 21:41:15</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>yleniastorti</t>
+          <t>diaryofachubbymummy_</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/09/2020, 12:06:04</t>
+          <t>01/20/2020, 22:23:53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>anna.dmn</t>
+          <t>xsarahst</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:30:28</t>
+          <t>01/26/2020, 21:45:03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>selinajulia_</t>
+          <t>eii.leeen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:30:46</t>
+          <t>01/26/2020, 21:47:38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mirjamwx</t>
+          <t>lydi.nckl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:31:25</t>
+          <t>01/26/2020, 21:50:36</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bright.angel9</t>
+          <t>justlollygns</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:31:38</t>
+          <t>01/26/2020, 21:53:05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>elisaa_ca</t>
+          <t>shellycjae</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:31:51</t>
+          <t>01/26/2020, 21:56:01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>saraygarciageiger</t>
+          <t>kiki_matranga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:32:04</t>
+          <t>01/26/2020, 21:58:33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sophie__lena</t>
+          <t>mirjamwx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:32:17</t>
+          <t>01/26/2020, 22:01:08</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nelipies</t>
+          <t>l_evoli</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:32:36</t>
+          <t>01/26/2020, 22:03:47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>stefaniegoldmarie</t>
+          <t>whatsupwithlena</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:32:54</t>
+          <t>01/26/2020, 22:06:30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>herzmelodie.vic</t>
+          <t>__clickwithlove__</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:33:07</t>
+          <t>01/26/2020, 22:09:05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bella.fashionella</t>
+          <t>vbkrs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:33:13</t>
+          <t>01/26/2020, 22:11:50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>steffi_patricia</t>
+          <t>vivicelinee</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:33:20</t>
+          <t>01/26/2020, 22:14:21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>leeeena_ar</t>
+          <t>jullezlana</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:33:31</t>
+          <t>01/26/2020, 22:19:05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>unbreakablx</t>
+          <t>stef.pict</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:33:38</t>
+          <t>01/26/2020, 22:21:52</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>linchenmaarie</t>
+          <t>_claudi.gnireod</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:33:44</t>
+          <t>01/26/2020, 22:24:33</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>kaathrinsophie</t>
+          <t>jolineju_</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:33:51</t>
+          <t>01/26/2020, 22:27:19</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>wildatheartcs</t>
+          <t>eii.leeen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:33:57</t>
+          <t>02/01/2020, 18:34:44</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>claudia.wlo</t>
+          <t>penelopefabia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:34:03</t>
+          <t>02/01/2020, 18:35:27</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>melania.ivanka</t>
+          <t>mrs.spanily</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:34:10</t>
+          <t>02/01/2020, 18:36:12</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hnebendahl</t>
+          <t>jolineju_</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:34:16</t>
+          <t>02/01/2020, 18:36:50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>daniela.s_</t>
+          <t>paulina_bo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:34:23</t>
+          <t>02/01/2020, 18:37:27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nessigoebel</t>
+          <t>larassophie</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:34:29</t>
+          <t>02/01/2020, 18:38:08</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>travelaestheticsbynoelle</t>
+          <t>justlollygns</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:34:36</t>
+          <t>02/01/2020, 18:38:49</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>jay.jaynina</t>
+          <t>vivien.krb</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:34:49</t>
+          <t>02/01/2020, 18:39:38</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>madalena_isabel</t>
+          <t>vitwinsea</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:34:55</t>
+          <t>02/01/2020, 18:40:16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jenni91__</t>
+          <t>annasview__</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:35:02</t>
+          <t>02/01/2020, 18:40:58</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>wuchtmopp</t>
+          <t>eileen.excellent</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:35:08</t>
+          <t>02/01/2020, 18:41:33</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sarah.98._</t>
+          <t>mariekleebolte</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:35:15</t>
+          <t>02/01/2020, 18:42:11</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>franzi_na_</t>
+          <t>katy_aus_la</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:35:21</t>
+          <t>02/01/2020, 18:42:55</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sherryloove</t>
+          <t>allaboutantonia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:35:33</t>
+          <t>02/01/2020, 18:43:32</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>anjelasgallery</t>
+          <t>deni.selou</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:35:45</t>
+          <t>02/01/2020, 18:44:18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>woman.travel</t>
+          <t>taniablume</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:35:51</t>
+          <t>02/01/2020, 18:45:04</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>steffi.lob</t>
+          <t>___nerdin___</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:36:03</t>
+          <t>02/01/2020, 18:47:59</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>aminaspassion</t>
+          <t>vaneza_sc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:36:10</t>
+          <t>02/02/2020, 18:17:35</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>jenny_94___</t>
+          <t>allthatglitters_91</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:36:16</t>
+          <t>02/02/2020, 18:18:15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>dodipi</t>
+          <t>jessicamtsk</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:36:23</t>
+          <t>02/02/2020, 18:19:23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>nikanewfield</t>
+          <t>saskiam_die</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:36:29</t>
+          <t>02/02/2020, 18:19:57</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>aniko_schweigert</t>
+          <t>liin18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:36:36</t>
+          <t>02/02/2020, 18:20:41</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>_christelle____</t>
+          <t>nenn_mich_sunny</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:36:42</t>
+          <t>02/02/2020, 18:21:17</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>saraheng__</t>
+          <t>elasgram</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:36:49</t>
+          <t>02/02/2020, 18:21:58</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>annikaaa_tb</t>
+          <t>nongpoyina</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:41:30</t>
+          <t>02/02/2020, 18:22:34</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>jennystenz</t>
+          <t>ameliemenninger</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:41:50</t>
+          <t>02/02/2020, 18:23:09</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>vanessa_frr</t>
+          <t>jenytirla</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:42:10</t>
+          <t>02/02/2020, 18:23:50</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>christiinaa_pe</t>
+          <t>miascoziness</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:44:05</t>
+          <t>02/02/2020, 18:24:33</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>about_jaqueline</t>
+          <t>livmrose</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:44:31</t>
+          <t>02/02/2020, 18:25:13</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>anniikaa_ku</t>
+          <t>enjahoertwas</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:44:51</t>
+          <t>02/02/2020, 18:25:51</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>itzjanamo</t>
+          <t>jassii05</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:45:11</t>
+          <t>02/02/2020, 18:26:29</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>diekimbeere</t>
+          <t>luziemichi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:47:20</t>
+          <t>02/02/2020, 18:27:14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>kimvirginia_</t>
+          <t>zhangshali</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:47:41</t>
+          <t>02/02/2020, 18:27:56</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>lisafusser</t>
+          <t>feeslife_</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:48:01</t>
+          <t>02/02/2020, 18:28:31</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>nicolelouisea</t>
+          <t>sophiekrtzng</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:48:21</t>
+          <t>02/02/2020, 18:29:16</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>melissmoller</t>
+          <t>aboutlinu</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:48:42</t>
+          <t>02/02/2020, 18:30:06</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>julia_elisa_</t>
+          <t>_danylps_</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:49:02</t>
+          <t>02/02/2020, 18:30:50</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>raulsebaastian</t>
+          <t>melek_dluxe</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:49:22</t>
+          <t>02/02/2020, 18:31:32</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>mlle.bahar</t>
+          <t>miriamrunkel</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:49:43</t>
+          <t>02/02/2020, 18:32:09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>be_a_lexa</t>
+          <t>mady.lu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:50:03</t>
+          <t>02/02/2020, 18:32:47</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mia.baz</t>
+          <t>fuchsbinich</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:50:23</t>
+          <t>02/02/2020, 18:33:23</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>tabitha.goldbecker</t>
+          <t>shokilaudon</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:50:49</t>
+          <t>02/02/2020, 18:34:06</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>olia.isa.photography</t>
+          <t>kobralita</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:51:09</t>
+          <t>02/02/2020, 18:34:43</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>_i_am_a_shopaholic</t>
+          <t>ivana.avitabile</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:51:30</t>
+          <t>02/02/2020, 18:35:18</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>absolut_svenni</t>
+          <t>selfbelle</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:51:50</t>
+          <t>02/02/2020, 18:36:01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>_lizzywonderland___</t>
+          <t>shellycjae</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01/09/2020, 17:52:10</t>
+          <t>02/02/2020, 18:36:37</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>schorni0809</t>
+          <t>viktoria.eliisabeth</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:48:20</t>
+          <t>02/02/2020, 18:37:17</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>madeleinebischoff</t>
+          <t>acshlmr_</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:49:06</t>
+          <t>02/02/2020, 18:38:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>patty.rsch</t>
+          <t>luukepk</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:50:29</t>
+          <t>02/02/2020, 18:38:44</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>liseira</t>
+          <t>vannabelcaro</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:51:15</t>
+          <t>02/02/2020, 18:39:29</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bea_ra84</t>
+          <t>letteringbyfee</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:51:53</t>
+          <t>02/02/2020, 18:40:09</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>sandriiiie</t>
+          <t>itsfeeona</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:52:36</t>
+          <t>02/02/2020, 18:40:52</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>miascoziness</t>
+          <t>brush_filou</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:53:13</t>
+          <t>02/02/2020, 18:41:28</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>mmadiwilliams</t>
+          <t>ninalein1991</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:54:04</t>
+          <t>02/02/2020, 18:42:11</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>anna.lore_</t>
+          <t>schlott_photography</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:54:48</t>
+          <t>02/02/2020, 18:42:47</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>justlollygns</t>
+          <t>__._jessica</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:55:26</t>
+          <t>02/02/2020, 18:43:33</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sarahjln__</t>
+          <t>isabell_roessing</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:56:07</t>
+          <t>02/02/2020, 18:44:14</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>miriamrunkel</t>
+          <t>sonosarah_</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:56:51</t>
+          <t>02/02/2020, 18:45:05</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>afiora7</t>
+          <t>radwa.maleek</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:57:42</t>
+          <t>02/02/2020, 18:47:31</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>_sarah_lin_</t>
+          <t>yomna.sa3eed</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:58:21</t>
+          <t>02/02/2020, 18:48:09</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mona_lchtnbrg</t>
+          <t>julia8820</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:59:07</t>
+          <t>02/02/2020, 18:48:51</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>emilouyorkiepoo</t>
+          <t>jessi.jth</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>01/16/2020, 15:59:46</t>
+          <t>02/02/2020, 18:49:38</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>caromecar</t>
+          <t>mariisellaa</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>01/16/2020, 16:00:31</t>
+          <t>02/02/2020, 18:50:15</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>oh.hi.alicia</t>
+          <t>sarah.hh24</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>01/16/2020, 16:01:13</t>
+          <t>02/02/2020, 18:50:58</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>monabelbali</t>
+          <t>cozshesolovely</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>01/16/2020, 16:01:51</t>
+          <t>02/02/2020, 18:51:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>frau_halbschick</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:52:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>mrsgruenni</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:53:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4yourwedding.hochzeitsplanerin</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:53:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>marie_13.06</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:55:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>stef.pict</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:56:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>jara_n_9</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:56:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>liseira</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:57:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>lenaweissss</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:58:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>miazophie</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:58:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>mrs.palinski</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>02/02/2020, 18:59:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>alexkloos</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>a_nd.rea</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:00:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>m.shelly.s</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:01:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>franzisigle</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:02:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>lydi.nckl</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:03:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>x12natalie89x</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:03:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>janette0398</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:04:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>lanathelion__</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:04:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>_.anyes</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:05:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>hanni_lndngr</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:06:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>w.lkel.sa</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:06:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>prinzessin_knall</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:07:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>cindy.keliig_</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:08:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>jessi.youtube</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:08:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>ina.bkr</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:09:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>frombesic</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:10:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>vanessamln_</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:10:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sarahdi__</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:11:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>navina_bluemle</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:12:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>l.i.n.e.98</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:12:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>k_sophie</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:13:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>die.jassii</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:14:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>_nine.michelle</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:14:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>_nadiiiine_xoxo</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:15:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>christal.mailey</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:16:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>bea_coupeur_</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:16:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>alexandrawlf</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:17:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>happy_michelli</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:18:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>alex_ateam_</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:19:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>coco_leany_</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>xmiiriiam_</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:20:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>melanie_markwart</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:21:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>vanni_3001</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:22:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>rachidulli</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:22:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>mariabenedettacammarano_</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:23:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>sara_loves_diamonds</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:24:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>miss_jessay</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:24:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>sherryloove</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:25:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>annannaei</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:26:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>an_gelina_90</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>kristinastravellife</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:27:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>lari_loreley</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:28:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>selinschje</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:28:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>passionsfashion2020</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:29:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>kimmberellaa</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:30:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>mrsniine</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:31:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>jacquelijne_</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:32:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ronja2900</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:32:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>rebekka.maria_</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:33:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>____saaabrina</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:34:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>yvetteseeger</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:34:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>lea__lae</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:35:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ohliisa_</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:36:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>miriamjanne</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:36:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>susisaar</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:37:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>_tamilein_</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:38:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>sarah_louyt</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:39:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>melifashionistax</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:39:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>mommy_sarah_</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:40:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>biancakilli_</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:40:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>die.liinda</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>michellibelli</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:42:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>jsi_mr</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:42:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>julie.rehbie</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:43:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>van.essa85</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:44:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>julias_kleine_welt</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:45:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>mamaemily7</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:45:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>bastisundtines_lrworld</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:46:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>angieskleinewelt</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:47:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>jessica_alof</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:47:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>tamarakaatharina</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:48:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>travellovers_for_life</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:49:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>josiisblog</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:49:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>lara_linchen</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:50:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>fabien.ehgartner</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:51:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>jasmin0797</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:51:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>isii1</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:52:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>mimiilovely</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:52:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>luisa.kuco</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:53:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>anja.s_lifestyle</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:54:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>sarahgebhart_</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:55:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>vanniteske</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:55:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>kathi.tratti</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:56:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>stefaniecebis</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:57:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>saradominguezl</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>marie_jmk</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:58:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>dehm__</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>02/02/2020, 19:59:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>realtalkwithemina</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:00:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>paatidaa</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:28:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>jackrusselterrier_lulu</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:28:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>lauraaamari</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:29:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>lea_muhl</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:29:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>oliviaxjnczk</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:30:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>xlauraschorn</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:31:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>judithwld</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:32:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>diaryofjanet</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:32:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>xy.lea.xy</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:33:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>lovely_little_mila</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:34:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>shanice_aylin</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:34:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>rosendahl.hannah</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>02/02/2020, 20:42:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>benundlauren</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:38:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>its_d.o.m.i.n.i.q.u.e_</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:39:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>alessa_in_steffi</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:39:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>saarschleife.touristik</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>jazz_t2c</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>pretty_crazy_life</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:42:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>mellanie.fernandez</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:43:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>miazaya_wiesbaden</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:43:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>flitzitas</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:44:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>celina_pehlke</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:45:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>michaelamsr</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:46:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>kim.0807</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:46:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>janamuehlhausen_</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:51:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>soloamia</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>02/03/2020, 15:54:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>patriciaxangelina</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>02/03/2020, 21:35:23</t>
         </is>
       </c>
     </row>
